--- a/MINI PROJECT DAX SALES DASHBOARD.xlsx
+++ b/MINI PROJECT DAX SALES DASHBOARD.xlsx
@@ -4372,202 +4372,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>310945</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76814</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>110832</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="310945" y="76814"/>
-          <a:ext cx="36653382" cy="16702768"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="1000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="45000"/>
-                  <a:lumOff val="55000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="83000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="45000"/>
-                  <a:lumOff val="55000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="30000"/>
-                  <a:lumOff val="70000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="1"/>
-          </a:gradFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>194785</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>155907</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>444944</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123799</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="808038" y="155907"/>
-          <a:ext cx="13128481" cy="750769"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="63500">
-            <a:schemeClr val="accent1">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>DAX STORE SALES DASHBOARD </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>305622</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>43095</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>268851</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>45066</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -4638,36 +4442,6 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>433437</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>40775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>195720</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>59979</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4744,32 +4518,212 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>140975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133635</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>41549</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>139772</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9320" y="0"/>
+          <a:ext cx="36280930" cy="17369518"/>
+          <a:chOff x="310945" y="76814"/>
+          <a:chExt cx="36280930" cy="17369518"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Rectangle 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="310945" y="76814"/>
+            <a:ext cx="36280930" cy="17369518"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="5000"/>
+                    <a:lumOff val="95000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="1000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="30000"/>
+                    <a:lumOff val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="798035" y="155907"/>
+            <a:ext cx="12918409" cy="729892"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:glow rad="63500">
+              <a:schemeClr val="accent1">
+                <a:satMod val="175000"/>
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DAX STORE SALES DASHBOARD </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="13" name="Chart 12"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="7544622" y="5186595"/>
+          <a:ext cx="3582729" cy="2097471"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="17" name="Chart 16"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="1036687" y="2136275"/>
+          <a:ext cx="5191533" cy="2686204"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="9" name="Chart 8"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="7983225" y="1086135"/>
+          <a:ext cx="7139574" cy="3244637"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>

--- a/MINI PROJECT DAX SALES DASHBOARD.xlsx
+++ b/MINI PROJECT DAX SALES DASHBOARD.xlsx
@@ -4372,162 +4372,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>573380</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>141282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>179654</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>70412</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="16" name="Product Name 2"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Product Name 2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1176630" y="1093782"/>
-              <a:ext cx="5035524" cy="691130"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>481584</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>15690</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>489742</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7668</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="Customer"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Customer"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6514084" y="4587690"/>
-              <a:ext cx="6040658" cy="372978"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9320</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>34018</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>8030</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4536,10 +4392,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9320" y="0"/>
-          <a:ext cx="36280930" cy="17369518"/>
-          <a:chOff x="310945" y="76814"/>
-          <a:chExt cx="36280930" cy="17369518"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="22755971" cy="8873191"/>
+          <a:chOff x="-36691630" y="132733"/>
+          <a:chExt cx="157864776" cy="9054537"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4549,8 +4405,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="310945" y="76814"/>
-            <a:ext cx="36280930" cy="17369518"/>
+            <a:off x="-36691630" y="132733"/>
+            <a:ext cx="157864776" cy="9054537"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4622,8 +4478,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="798035" y="155907"/>
-            <a:ext cx="12918409" cy="729892"/>
+            <a:off x="-16732102" y="214453"/>
+            <a:ext cx="99498564" cy="729892"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -4684,8 +4540,8 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="7544622" y="5186595"/>
-          <a:ext cx="3582729" cy="2097471"/>
+          <a:off x="6025096" y="6458178"/>
+          <a:ext cx="38610779" cy="2436000"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4699,8 +4555,8 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="1036687" y="2136275"/>
-          <a:ext cx="5191533" cy="2686204"/>
+          <a:off x="-31638633" y="1905143"/>
+          <a:ext cx="56230824" cy="3258946"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4714,8 +4570,8 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="7983225" y="1086135"/>
-          <a:ext cx="7139574" cy="3244637"/>
+          <a:off x="25499138" y="1934596"/>
+          <a:ext cx="72167202" cy="3248552"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4724,6 +4580,150 @@
         </a:graphic>
       </xdr:graphicFrame>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>560293</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>110933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>504264</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="16" name="Product Name 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Product Name 2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4258234" y="857992"/>
+              <a:ext cx="9805148" cy="748185"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>240462</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>248618</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>131068</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Customer"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Customer"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5787374" y="5555266"/>
+              <a:ext cx="6171391" cy="365508"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8017,15 +8017,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AG2:AI41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG30" sqref="AF30:AG32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="51" zoomScaleNormal="80" zoomScaleSheetLayoutView="51" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="33" max="33" width="25.42578125" customWidth="1"/>
-    <col min="34" max="34" width="22.28515625" customWidth="1"/>
-    <col min="35" max="35" width="32.5703125" customWidth="1"/>
+    <col min="33" max="33" width="24.5703125" customWidth="1"/>
+    <col min="34" max="34" width="20.85546875" customWidth="1"/>
+    <col min="35" max="35" width="31.28515625" customWidth="1"/>
     <col min="36" max="36" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
